--- a/NformTester/NformTester/keywordscripts/TST2754_DailyForGlobalStatusPolling.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2754_DailyForGlobalStatusPolling.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7927" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7925" uniqueCount="893">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3783,9 +3783,6 @@
   </si>
   <si>
     <t>SingleManual</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
   </si>
   <si>
     <t>"Description for GXT"</t>
@@ -3899,18 +3896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.146.88.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS_other"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Select 'Daily' for global on Server options window, click 'OK'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3939,10 +3924,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3959,10 +3940,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10:163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$GXT_ChangeData$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4012,6 +3989,24 @@
   </si>
   <si>
     <t>;Verify that: Nform will not poll the status for the devices whoes polling status are 'Disabled', Nform will receive the alarms, the status of the devices should not change.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_1$</t>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_1_NAME$</t>
+  </si>
+  <si>
+    <t>$GXT_Ip_Port$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4243,7 +4238,21 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4550,7 +4559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
+      <selection activeCell="D65" sqref="A65:XFD65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4560,59 +4571,60 @@
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>850</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>851</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4633,16 +4645,16 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>854</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>855</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -4652,13 +4664,13 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>857</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>858</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -4667,10 +4679,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>859</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>860</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4697,7 +4709,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B5" s="8">
         <v>41122</v>
@@ -4706,7 +4718,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4721,7 +4733,7 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B6" s="8">
         <v>41137</v>
@@ -4730,7 +4742,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4767,28 +4779,28 @@
         <v>834</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>865</v>
+        <v>888</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -4807,19 +4819,19 @@
         <v>834</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -4834,7 +4846,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4863,7 +4875,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -4891,7 +4903,7 @@
         <v>84</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -4919,7 +4931,7 @@
         <v>454</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="9"/>
@@ -4950,7 +4962,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>1</v>
@@ -4979,7 +4991,7 @@
         <v>497</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="4"/>
@@ -5007,10 +5019,10 @@
         <v>500</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5037,7 +5049,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -5056,7 +5068,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="4"/>
@@ -5114,10 +5126,10 @@
         <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="4"/>
@@ -5148,7 +5160,7 @@
         <v>56</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -5262,10 +5274,10 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -5284,7 +5296,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -5302,21 +5314,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="9" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="I27" s="9">
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -5328,10 +5340,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F28" s="4">
         <v>30</v>
@@ -5350,7 +5362,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="4"/>
@@ -5368,10 +5380,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
@@ -5390,7 +5402,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="4"/>
@@ -5444,7 +5456,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5482,10 +5494,10 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -5504,21 +5516,21 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="9" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="I36" s="9">
         <v>1</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -5530,10 +5542,10 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F37" s="4">
         <v>20</v>
@@ -5552,7 +5564,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="4"/>
@@ -5570,10 +5582,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F39" s="4">
         <v>10</v>
@@ -5592,21 +5604,21 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="9" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="I40" s="9">
         <v>1</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5618,10 +5630,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F41" s="4">
         <v>30</v>
@@ -5640,7 +5652,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="4"/>
@@ -5658,10 +5670,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F43" s="4">
         <v>2</v>
@@ -5680,7 +5692,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="4"/>
@@ -5698,10 +5710,10 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F45" s="4">
         <v>2</v>
@@ -5720,7 +5732,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="4"/>
@@ -5774,7 +5786,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -5812,10 +5824,10 @@
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -5834,21 +5846,21 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="9" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="I51" s="9">
         <v>1</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -5860,10 +5872,10 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F52" s="4">
         <v>20</v>
@@ -5882,7 +5894,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="4"/>
@@ -5900,10 +5912,10 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -5922,7 +5934,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="4"/>
@@ -5970,10 +5982,10 @@
         <v>19</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -5988,10 +6000,10 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>633</v>
@@ -6000,7 +6012,7 @@
         <v>56</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>835</v>
+        <v>890</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -6014,10 +6026,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>205</v>
@@ -6089,7 +6101,7 @@
         <v>830</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>100</v>
@@ -6110,10 +6122,10 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F63" s="4">
         <v>2</v>
@@ -6132,7 +6144,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -6147,22 +6159,20 @@
     </row>
     <row r="65" spans="3:14">
       <c r="C65" s="4">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>830</v>
+        <v>871</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+        <v>872</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -6174,7 +6184,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -6201,7 +6211,7 @@
         <v>22</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -6225,7 +6235,7 @@
         <v>84</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -6249,7 +6259,7 @@
         <v>454</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="9"/>
@@ -6276,7 +6286,7 @@
         <v>7</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="I70" s="4" t="b">
         <v>1</v>
@@ -6301,7 +6311,7 @@
         <v>496</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="4"/>
@@ -6325,7 +6335,7 @@
         <v>17</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="4"/>
@@ -6340,10 +6350,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F73" s="4">
         <v>2</v>
@@ -6386,7 +6396,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>19</v>
@@ -6410,10 +6420,10 @@
         <v>75</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>633</v>
@@ -6422,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6436,10 +6446,10 @@
         <v>76</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>215</v>
@@ -6460,7 +6470,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>640</v>
@@ -6484,10 +6494,10 @@
         <v>78</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>100</v>
@@ -6506,10 +6516,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N1:N79">
-    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6517,13 +6527,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29:F34 F26:F27 F36 F2:F24 F38:F40 F42:F49 F51 F53 F55:F79">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14 G16:G75 G77:G79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14 G77:G79 G16:G75">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67:E79 E65 E2:E63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67:E79 E2:E63 E65">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D74 D65 D60:D63 D43 D39:D41 D7:D8 D10:D12 D18:D25 D32:D37 D30 D27:D28 D3:D4 D47:D52 D54 D67:D69 D56:D57 D45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D74 D45 D60:D63 D43 D39:D41 D7:D8 D10:D12 D18:D25 D32:D37 D30 D27:D28 D3:D4 D47:D52 D54 D67:D69 D56:D57 D65">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/keywordscripts/TST2754_DailyForGlobalStatusPolling.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2754_DailyForGlobalStatusPolling.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7925" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7943" uniqueCount="898">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3844,10 +3844,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Author</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3940,10 +3936,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_ChangeData$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Verify that: Nform will recevie the alarms. the status of the devices should not change.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3952,10 +3944,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_ResetData$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Generate alarm for some devices when the current time is very close to the configured time, for example 10 seconds to the configured time. Check the status of the devices.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3992,21 +3980,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_1$</t>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_1_NAME$</t>
-  </si>
-  <si>
-    <t>$GXT_Ip_Port$</t>
+    <t>$SNMP_device_1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1_NAME$</t>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_Ip_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_Ip_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ChangeData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ChangeData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ResetData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ResetData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4238,21 +4259,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4557,10 +4564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
-      <selection activeCell="D65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4645,16 +4652,16 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>853</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>854</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -4664,13 +4671,13 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>856</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>857</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -4679,10 +4686,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>858</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>859</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4709,7 +4716,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B5" s="8">
         <v>41122</v>
@@ -4718,7 +4725,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4733,16 +4740,16 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B6" s="8">
+        <v>41450</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>862</v>
-      </c>
-      <c r="B6" s="8">
-        <v>41137</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>863</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4760,7 +4767,7 @@
         <v>816</v>
       </c>
       <c r="B7" s="3">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -4779,10 +4786,10 @@
         <v>834</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>888</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>890</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>835</v>
@@ -4797,11 +4804,9 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>851</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4819,10 +4824,10 @@
         <v>834</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>889</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>891</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>835</v>
@@ -4837,16 +4842,14 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>818</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4860,8 +4863,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>818</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4875,7 +4882,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -4886,10 +4893,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4903,7 +4908,7 @@
         <v>84</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -4915,7 +4920,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4931,7 +4936,7 @@
         <v>454</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="9"/>
@@ -4943,7 +4948,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
@@ -4962,12 +4967,14 @@
         <v>7</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="I13" s="4" t="b">
+        <v>865</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="J13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -4975,7 +4982,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
@@ -4991,7 +4998,7 @@
         <v>497</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="4"/>
@@ -5003,7 +5010,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
@@ -5019,10 +5026,10 @@
         <v>500</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>867</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>868</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5033,7 +5040,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
@@ -5049,7 +5056,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -5060,15 +5067,15 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" ht="15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
-        <v>825</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="4"/>
@@ -5084,7 +5091,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5110,11 +5117,9 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>827</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5126,10 +5131,10 @@
         <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="4"/>
@@ -5141,9 +5146,11 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="B20" s="13"/>
+        <v>827</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>818</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5160,7 +5167,7 @@
         <v>56</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -5171,7 +5178,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
@@ -5198,6 +5205,10 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5274,10 +5285,10 @@
         <v>24</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -5296,7 +5307,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -5314,21 +5325,21 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I27" s="9">
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -5340,10 +5351,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F28" s="4">
         <v>30</v>
@@ -5362,7 +5373,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="4"/>
@@ -5380,10 +5391,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
@@ -5402,7 +5413,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="4"/>
@@ -5426,7 +5437,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>2</v>
@@ -5450,14 +5461,12 @@
         <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>114</v>
+        <v>897</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>838</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -5476,7 +5485,7 @@
         <v>19</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>2</v>
@@ -5494,17 +5503,21 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>871</v>
+        <v>830</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -5516,22 +5529,20 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>871</v>
+        <v>830</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="I36" s="9">
-        <v>1</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>878</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -5542,13 +5553,13 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>872</v>
-      </c>
       <c r="F37" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="9"/>
@@ -5559,19 +5570,27 @@
       <c r="M37" s="4"/>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="3:14" ht="15">
+    <row r="38" spans="3:14">
       <c r="C38" s="4">
         <v>37</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="E38" s="9"/>
+      <c r="D38" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>873</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="4"/>
+      <c r="H38" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>895</v>
+      </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -5582,44 +5601,36 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>872</v>
-      </c>
       <c r="F39" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="14"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" ht="15">
       <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>874</v>
-      </c>
+      <c r="D40" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="I40" s="9">
-        <v>1</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>875</v>
-      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -5630,36 +5641,44 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>872</v>
-      </c>
       <c r="F41" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="14"/>
     </row>
-    <row r="42" spans="3:14" ht="15">
+    <row r="42" spans="3:14">
       <c r="C42" s="4">
         <v>41</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="E42" s="9"/>
+      <c r="D42" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>873</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="4"/>
+      <c r="H42" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>893</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -5670,17 +5689,17 @@
         <v>42</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>872</v>
-      </c>
       <c r="F43" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -5692,7 +5711,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="4"/>
@@ -5710,10 +5729,10 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F45" s="4">
         <v>2</v>
@@ -5732,7 +5751,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="4"/>
@@ -5750,17 +5769,15 @@
         <v>46</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -5769,26 +5786,18 @@
       <c r="M47" s="4"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:14" ht="15">
       <c r="C48" s="4">
         <v>47</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="I48" s="4"/>
+      <c r="D48" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -5806,7 +5815,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>2</v>
@@ -5824,17 +5833,19 @@
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>871</v>
+        <v>830</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -5846,22 +5857,20 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>871</v>
+        <v>830</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>874</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="I51" s="9">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>878</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -5872,35 +5881,45 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>871</v>
+        <v>830</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="F52" s="4">
-        <v>20</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="3:14" ht="15">
+    <row r="53" spans="3:14">
       <c r="C53" s="4">
         <v>52</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="D53" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -5912,10 +5931,10 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>872</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -5929,19 +5948,27 @@
       <c r="M54" s="4"/>
       <c r="N54" s="14"/>
     </row>
-    <row r="55" spans="3:14" ht="15">
+    <row r="55" spans="3:14">
       <c r="C55" s="4">
         <v>54</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="E55" s="9"/>
+      <c r="D55" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>873</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="4"/>
+      <c r="H55" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="I55" s="9">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>896</v>
+      </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -5952,43 +5979,35 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+        <v>871</v>
+      </c>
+      <c r="F56" s="4">
+        <v>20</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="14"/>
     </row>
-    <row r="57" spans="3:14">
+    <row r="57" spans="3:14" ht="15">
       <c r="C57" s="4">
         <v>56</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+      <c r="D57" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -6000,45 +6019,35 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="I58" s="4"/>
+        <v>871</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="14"/>
     </row>
-    <row r="59" spans="3:14" ht="14.25">
+    <row r="59" spans="3:14" ht="15">
       <c r="C59" s="4">
         <v>58</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="4"/>
+      <c r="D59" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -6053,10 +6062,10 @@
         <v>830</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>571</v>
+        <v>19</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>582</v>
+        <v>22</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>2</v>
@@ -6077,13 +6086,13 @@
         <v>830</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>571</v>
+        <v>19</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>17</v>
+        <v>869</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>2</v>
+        <v>864</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -6098,18 +6107,20 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>830</v>
+        <v>882</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>100</v>
+        <v>633</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>888</v>
+      </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -6117,21 +6128,23 @@
       <c r="M62" s="4"/>
       <c r="N62" s="14"/>
     </row>
-    <row r="63" spans="3:14">
+    <row r="63" spans="3:14" ht="14.25">
       <c r="C63" s="4">
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+        <v>883</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="16"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -6139,38 +6152,46 @@
       <c r="M63" s="4"/>
       <c r="N63" s="14"/>
     </row>
-    <row r="64" spans="3:14" ht="15">
+    <row r="64" spans="3:14">
       <c r="C64" s="4">
         <v>63</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="D64" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="17"/>
+      <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="14"/>
     </row>
     <row r="65" spans="3:14">
       <c r="C65" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>871</v>
+        <v>830</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="F65" s="4">
-        <v>2</v>
-      </c>
-      <c r="G65" s="4"/>
+        <v>571</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -6179,20 +6200,26 @@
       <c r="M65" s="4"/>
       <c r="N65" s="14"/>
     </row>
-    <row r="66" spans="3:14" ht="15">
+    <row r="66" spans="3:14">
       <c r="C66" s="4">
         <v>65</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="D66" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="17"/>
+      <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="14"/>
@@ -6202,45 +6229,37 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+        <v>871</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="14"/>
     </row>
-    <row r="68" spans="3:14">
+    <row r="68" spans="3:14" ht="15">
       <c r="C68" s="4">
         <v>67</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="D68" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
+      <c r="K68" s="17"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="14"/>
@@ -6250,49 +6269,37 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>865</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2</v>
+      </c>
+      <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="3:14">
+    <row r="70" spans="3:14" ht="15">
       <c r="C70" s="4">
         <v>69</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="I70" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D70" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
+      <c r="K70" s="17"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="14"/>
@@ -6304,17 +6311,17 @@
       <c r="D71" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>450</v>
+      <c r="E71" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>496</v>
+        <v>22</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H71" s="9"/>
-      <c r="I71" s="4"/>
+      <c r="I71" s="9"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -6328,18 +6335,18 @@
       <c r="D72" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>450</v>
+      <c r="E72" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H72" s="9"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
@@ -6350,17 +6357,19 @@
         <v>72</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="F73" s="4">
-        <v>2</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>830</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>864</v>
+      </c>
       <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="I73" s="9"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -6374,18 +6383,24 @@
       <c r="D74" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>19</v>
+      <c r="E74" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>22</v>
+        <v>497</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="J74" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -6396,19 +6411,19 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>19</v>
+        <v>830</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2</v>
+        <v>864</v>
       </c>
       <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -6420,44 +6435,40 @@
         <v>75</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>886</v>
+        <v>830</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>633</v>
+        <v>17</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>838</v>
-      </c>
+        <v>864</v>
+      </c>
+      <c r="H76" s="9"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="J76" s="9"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="14"/>
     </row>
-    <row r="77" spans="3:14" ht="14.25">
+    <row r="77" spans="3:14">
       <c r="C77" s="4">
         <v>76</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="16"/>
+        <v>871</v>
+      </c>
+      <c r="F77" s="4">
+        <v>2</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -6470,19 +6481,19 @@
         <v>77</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>640</v>
+        <v>830</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H78" s="9"/>
-      <c r="I78" s="4"/>
+      <c r="I78" s="9"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -6494,13 +6505,13 @@
         <v>78</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>886</v>
+        <v>19</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>2</v>
@@ -6513,27 +6524,125 @@
       <c r="M79" s="4"/>
       <c r="N79" s="14"/>
     </row>
+    <row r="80" spans="3:14">
+      <c r="C80" s="4">
+        <v>79</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="14"/>
+    </row>
+    <row r="81" spans="3:14" ht="14.25">
+      <c r="C81" s="4">
+        <v>80</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="16"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="14"/>
+    </row>
+    <row r="82" spans="3:14">
+      <c r="C82" s="4">
+        <v>81</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="9"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="14"/>
+    </row>
+    <row r="83" spans="3:14">
+      <c r="C83" s="4">
+        <v>82</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N1:N79">
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N1:N83">
+    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29:F34 F26:F27 F36 F2:F24 F38:F40 F42:F49 F51 F53 F55:F79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F59:F83 F26:F27 F38 F2:F24 F40:F42 F29:F36 F55 F57 F44:F53">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14 G77:G79 G16:G75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14 G81:G83 G16:G79">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67:E79 E2:E63 E65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E71:E83 E69 E2:E67">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D74 D45 D60:D63 D43 D39:D41 D7:D8 D10:D12 D18:D25 D32:D37 D30 D27:D28 D3:D4 D47:D52 D54 D67:D69 D56:D57 D65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D77:D78 D47 D64:D67 D45 D41:D43 D7:D8 D10:D12 D18:D25 D32:D39 D30 D27:D28 D3:D4 D49:D56 D58 D71:D73 D60:D61 D69">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
   </dataValidations>
